--- a/data_latih.xlsx
+++ b/data_latih.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62002C35-81A9-413C-9B70-4AF637C25534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="15">
   <si>
     <t>Skenario</t>
   </si>
@@ -70,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,21 +128,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -220,7 +206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,10 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,16 +415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,7 +480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -527,7 +509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -556,7 +538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -576,7 +558,7 @@
         <v>3.5</v>
       </c>
       <c r="G5">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -585,7 +567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -602,7 +584,7 @@
         <v>12</v>
       </c>
       <c r="F6">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -614,7 +596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -643,7 +625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -672,7 +654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -701,7 +683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -730,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -759,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -779,7 +761,7 @@
         <v>3.2</v>
       </c>
       <c r="G12">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -788,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -817,7 +799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -846,7 +828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -875,7 +857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -904,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -933,7 +915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -962,7 +944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -982,7 +964,7 @@
         <v>3.6</v>
       </c>
       <c r="G19">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
@@ -991,7 +973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1020,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1046,6 +1028,2906 @@
         <v>9</v>
       </c>
       <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>35.5302</v>
+      </c>
+      <c r="C22">
+        <v>28.2444</v>
+      </c>
+      <c r="D22">
+        <v>80.3993</v>
+      </c>
+      <c r="E22">
+        <v>8.3725</v>
+      </c>
+      <c r="F22">
+        <v>2.353</v>
+      </c>
+      <c r="G22">
+        <v>2.9134</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>16.1719</v>
+      </c>
+      <c r="C23">
+        <v>33.118</v>
+      </c>
+      <c r="D23">
+        <v>79.6876</v>
+      </c>
+      <c r="E23">
+        <v>14.8038</v>
+      </c>
+      <c r="F23">
+        <v>3.9349</v>
+      </c>
+      <c r="G23">
+        <v>2.3527</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>53.5286</v>
+      </c>
+      <c r="C24">
+        <v>30.5001</v>
+      </c>
+      <c r="D24">
+        <v>73.4132</v>
+      </c>
+      <c r="E24">
+        <v>18.5686</v>
+      </c>
+      <c r="F24">
+        <v>2.5761</v>
+      </c>
+      <c r="G24">
+        <v>1.6954</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>69.84999999999999</v>
+      </c>
+      <c r="C25">
+        <v>26.0088</v>
+      </c>
+      <c r="D25">
+        <v>97.70610000000001</v>
+      </c>
+      <c r="E25">
+        <v>13.8301</v>
+      </c>
+      <c r="F25">
+        <v>2.0991</v>
+      </c>
+      <c r="G25">
+        <v>2.1346</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>31.3212</v>
+      </c>
+      <c r="C26">
+        <v>26.311</v>
+      </c>
+      <c r="D26">
+        <v>78.1724</v>
+      </c>
+      <c r="E26">
+        <v>10.5613</v>
+      </c>
+      <c r="F26">
+        <v>2.0553</v>
+      </c>
+      <c r="G26">
+        <v>2.9517</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>90.65089999999999</v>
+      </c>
+      <c r="C27">
+        <v>32.6827</v>
+      </c>
+      <c r="D27">
+        <v>87.7944</v>
+      </c>
+      <c r="E27">
+        <v>17.068</v>
+      </c>
+      <c r="F27">
+        <v>3.7674</v>
+      </c>
+      <c r="G27">
+        <v>1.6394</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>23.2605</v>
+      </c>
+      <c r="C28">
+        <v>34.172</v>
+      </c>
+      <c r="D28">
+        <v>90.28959999999999</v>
+      </c>
+      <c r="E28">
+        <v>12.2503</v>
+      </c>
+      <c r="F28">
+        <v>2.3595</v>
+      </c>
+      <c r="G28">
+        <v>2.135</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>93.4413</v>
+      </c>
+      <c r="C29">
+        <v>33.5989</v>
+      </c>
+      <c r="D29">
+        <v>83.702</v>
+      </c>
+      <c r="E29">
+        <v>20.8475</v>
+      </c>
+      <c r="F29">
+        <v>1.8247</v>
+      </c>
+      <c r="G29">
+        <v>2.1491</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>37.8519</v>
+      </c>
+      <c r="C30">
+        <v>31.0958</v>
+      </c>
+      <c r="D30">
+        <v>77.44029999999999</v>
+      </c>
+      <c r="E30">
+        <v>20.8476</v>
+      </c>
+      <c r="F30">
+        <v>2.2067</v>
+      </c>
+      <c r="G30">
+        <v>1.9821</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>11.7941</v>
+      </c>
+      <c r="C31">
+        <v>27.3906</v>
+      </c>
+      <c r="D31">
+        <v>74.14400000000001</v>
+      </c>
+      <c r="E31">
+        <v>18.8606</v>
+      </c>
+      <c r="F31">
+        <v>3.8792</v>
+      </c>
+      <c r="G31">
+        <v>2.6571</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2.0516</v>
+      </c>
+      <c r="C32">
+        <v>32.713</v>
+      </c>
+      <c r="D32">
+        <v>92.2441</v>
+      </c>
+      <c r="E32">
+        <v>13.6336</v>
+      </c>
+      <c r="F32">
+        <v>3.8047</v>
+      </c>
+      <c r="G32">
+        <v>2.5029</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>91.03959999999999</v>
+      </c>
+      <c r="C33">
+        <v>31.1493</v>
+      </c>
+      <c r="D33">
+        <v>88.1841</v>
+      </c>
+      <c r="E33">
+        <v>16.0474</v>
+      </c>
+      <c r="F33">
+        <v>2.8298</v>
+      </c>
+      <c r="G33">
+        <v>2.3751</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>62.9114</v>
+      </c>
+      <c r="C34">
+        <v>31.9511</v>
+      </c>
+      <c r="D34">
+        <v>75.1835</v>
+      </c>
+      <c r="E34">
+        <v>10.0399</v>
+      </c>
+      <c r="F34">
+        <v>3.0539</v>
+      </c>
+      <c r="G34">
+        <v>1.7829</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>52.279</v>
+      </c>
+      <c r="C35">
+        <v>31.3718</v>
+      </c>
+      <c r="D35">
+        <v>72.9615</v>
+      </c>
+      <c r="E35">
+        <v>20.6907</v>
+      </c>
+      <c r="F35">
+        <v>3.4481</v>
+      </c>
+      <c r="G35">
+        <v>1.6668</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>23.1014</v>
+      </c>
+      <c r="C36">
+        <v>30.5619</v>
+      </c>
+      <c r="D36">
+        <v>73.8325</v>
+      </c>
+      <c r="E36">
+        <v>6.7269</v>
+      </c>
+      <c r="F36">
+        <v>2.0333</v>
+      </c>
+      <c r="G36">
+        <v>1.9776</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>59.2845</v>
+      </c>
+      <c r="C37">
+        <v>31.7118</v>
+      </c>
+      <c r="D37">
+        <v>99.23050000000001</v>
+      </c>
+      <c r="E37">
+        <v>6.7099</v>
+      </c>
+      <c r="F37">
+        <v>3.9405</v>
+      </c>
+      <c r="G37">
+        <v>2.6956</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>31.0341</v>
+      </c>
+      <c r="C38">
+        <v>30.2575</v>
+      </c>
+      <c r="D38">
+        <v>90.9207</v>
+      </c>
+      <c r="E38">
+        <v>6.1415</v>
+      </c>
+      <c r="F38">
+        <v>3.6859</v>
+      </c>
+      <c r="G38">
+        <v>2.6482</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>81.235</v>
+      </c>
+      <c r="C39">
+        <v>32.7052</v>
+      </c>
+      <c r="D39">
+        <v>80.56699999999999</v>
+      </c>
+      <c r="E39">
+        <v>14.5327</v>
+      </c>
+      <c r="F39">
+        <v>3.6153</v>
+      </c>
+      <c r="G39">
+        <v>2.9411</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>28.8068</v>
+      </c>
+      <c r="C40">
+        <v>32.0569</v>
+      </c>
+      <c r="D40">
+        <v>84.3783</v>
+      </c>
+      <c r="E40">
+        <v>9.066800000000001</v>
+      </c>
+      <c r="F40">
+        <v>2.6856</v>
+      </c>
+      <c r="G40">
+        <v>2.5834</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>25.6314</v>
+      </c>
+      <c r="C41">
+        <v>32.6836</v>
+      </c>
+      <c r="D41">
+        <v>89.3828</v>
+      </c>
+      <c r="E41">
+        <v>8.9954</v>
+      </c>
+      <c r="F41">
+        <v>3.1532</v>
+      </c>
+      <c r="G41">
+        <v>2.2783</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>14.2183</v>
+      </c>
+      <c r="C42">
+        <v>34.7713</v>
+      </c>
+      <c r="D42">
+        <v>77.1354</v>
+      </c>
+      <c r="E42">
+        <v>17.4676</v>
+      </c>
+      <c r="F42">
+        <v>3.8843</v>
+      </c>
+      <c r="G42">
+        <v>1.548</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2.1701</v>
+      </c>
+      <c r="C43">
+        <v>29.4954</v>
+      </c>
+      <c r="D43">
+        <v>98.4995</v>
+      </c>
+      <c r="E43">
+        <v>23.3252</v>
+      </c>
+      <c r="F43">
+        <v>2.7129</v>
+      </c>
+      <c r="G43">
+        <v>2.2428</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>47.655</v>
+      </c>
+      <c r="C44">
+        <v>34.88</v>
+      </c>
+      <c r="D44">
+        <v>95.25409999999999</v>
+      </c>
+      <c r="E44">
+        <v>17.2763</v>
+      </c>
+      <c r="F44">
+        <v>1.6533</v>
+      </c>
+      <c r="G44">
+        <v>2.8703</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2.9077</v>
+      </c>
+      <c r="C45">
+        <v>32.8442</v>
+      </c>
+      <c r="D45">
+        <v>72.7209</v>
+      </c>
+      <c r="E45">
+        <v>7.7993</v>
+      </c>
+      <c r="F45">
+        <v>2.8205</v>
+      </c>
+      <c r="G45">
+        <v>1.6767</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>83.2124</v>
+      </c>
+      <c r="C46">
+        <v>32.7162</v>
+      </c>
+      <c r="D46">
+        <v>88.26439999999999</v>
+      </c>
+      <c r="E46">
+        <v>23.612</v>
+      </c>
+      <c r="F46">
+        <v>2.232</v>
+      </c>
+      <c r="G46">
+        <v>2.3857</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>14.3073</v>
+      </c>
+      <c r="C47">
+        <v>29.5177</v>
+      </c>
+      <c r="D47">
+        <v>91.97920000000001</v>
+      </c>
+      <c r="E47">
+        <v>24.0641</v>
+      </c>
+      <c r="F47">
+        <v>3.6501</v>
+      </c>
+      <c r="G47">
+        <v>1.7089</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>49.5667</v>
+      </c>
+      <c r="C48">
+        <v>30.6618</v>
+      </c>
+      <c r="D48">
+        <v>95.60299999999999</v>
+      </c>
+      <c r="E48">
+        <v>19.3216</v>
+      </c>
+      <c r="F48">
+        <v>2.169</v>
+      </c>
+      <c r="G48">
+        <v>2.0317</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>81.13200000000001</v>
+      </c>
+      <c r="C49">
+        <v>25.4542</v>
+      </c>
+      <c r="D49">
+        <v>73.5291</v>
+      </c>
+      <c r="E49">
+        <v>14.157</v>
+      </c>
+      <c r="F49">
+        <v>2.0022</v>
+      </c>
+      <c r="G49">
+        <v>2.2568</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>95.49930000000001</v>
+      </c>
+      <c r="C50">
+        <v>28.6037</v>
+      </c>
+      <c r="D50">
+        <v>71.19759999999999</v>
+      </c>
+      <c r="E50">
+        <v>5.7748</v>
+      </c>
+      <c r="F50">
+        <v>3.1097</v>
+      </c>
+      <c r="G50">
+        <v>2.05</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>24.5356</v>
+      </c>
+      <c r="C51">
+        <v>28.2698</v>
+      </c>
+      <c r="D51">
+        <v>70.72020000000001</v>
+      </c>
+      <c r="E51">
+        <v>20.6066</v>
+      </c>
+      <c r="F51">
+        <v>3.2441</v>
+      </c>
+      <c r="G51">
+        <v>2.2417</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>68.6648</v>
+      </c>
+      <c r="C52">
+        <v>25.5696</v>
+      </c>
+      <c r="D52">
+        <v>84.3325</v>
+      </c>
+      <c r="E52">
+        <v>10.863</v>
+      </c>
+      <c r="F52">
+        <v>3.871</v>
+      </c>
+      <c r="G52">
+        <v>2.4085</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>13.0916</v>
+      </c>
+      <c r="C53">
+        <v>29.6007</v>
+      </c>
+      <c r="D53">
+        <v>97.8552</v>
+      </c>
+      <c r="E53">
+        <v>20.2062</v>
+      </c>
+      <c r="F53">
+        <v>3.2609</v>
+      </c>
+      <c r="G53">
+        <v>1.5541</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>69.0269</v>
+      </c>
+      <c r="C54">
+        <v>26.8341</v>
+      </c>
+      <c r="D54">
+        <v>89.27800000000001</v>
+      </c>
+      <c r="E54">
+        <v>8.093</v>
+      </c>
+      <c r="F54">
+        <v>3.9298</v>
+      </c>
+      <c r="G54">
+        <v>1.7702</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>44.0145</v>
+      </c>
+      <c r="C55">
+        <v>34.5821</v>
+      </c>
+      <c r="D55">
+        <v>82.4006</v>
+      </c>
+      <c r="E55">
+        <v>21.5969</v>
+      </c>
+      <c r="F55">
+        <v>2.394</v>
+      </c>
+      <c r="G55">
+        <v>2.629</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>52.8481</v>
+      </c>
+      <c r="C56">
+        <v>30.0315</v>
+      </c>
+      <c r="D56">
+        <v>95.5223</v>
+      </c>
+      <c r="E56">
+        <v>24.8108</v>
+      </c>
+      <c r="F56">
+        <v>2.5784</v>
+      </c>
+      <c r="G56">
+        <v>2.813</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>76.1644</v>
+      </c>
+      <c r="C57">
+        <v>32.662</v>
+      </c>
+      <c r="D57">
+        <v>86.8492</v>
+      </c>
+      <c r="E57">
+        <v>15.5236</v>
+      </c>
+      <c r="F57">
+        <v>2.984</v>
+      </c>
+      <c r="G57">
+        <v>1.5926</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>19.0549</v>
+      </c>
+      <c r="C58">
+        <v>29.0957</v>
+      </c>
+      <c r="D58">
+        <v>89.84690000000001</v>
+      </c>
+      <c r="E58">
+        <v>10.2272</v>
+      </c>
+      <c r="F58">
+        <v>3.7233</v>
+      </c>
+      <c r="G58">
+        <v>2.5709</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>97.4329</v>
+      </c>
+      <c r="C59">
+        <v>34.8201</v>
+      </c>
+      <c r="D59">
+        <v>92.0973</v>
+      </c>
+      <c r="E59">
+        <v>8.7347</v>
+      </c>
+      <c r="F59">
+        <v>2.0356</v>
+      </c>
+      <c r="G59">
+        <v>1.5322</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>88.48950000000001</v>
+      </c>
+      <c r="C60">
+        <v>25.1568</v>
+      </c>
+      <c r="D60">
+        <v>85.107</v>
+      </c>
+      <c r="E60">
+        <v>6.6153</v>
+      </c>
+      <c r="F60">
+        <v>2.9917</v>
+      </c>
+      <c r="G60">
+        <v>2.6597</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>41.4316</v>
+      </c>
+      <c r="C61">
+        <v>25.1194</v>
+      </c>
+      <c r="D61">
+        <v>90.4384</v>
+      </c>
+      <c r="E61">
+        <v>6.4252</v>
+      </c>
+      <c r="F61">
+        <v>3.3093</v>
+      </c>
+      <c r="G61">
+        <v>2.732</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>42.9496</v>
+      </c>
+      <c r="C62">
+        <v>27.1638</v>
+      </c>
+      <c r="D62">
+        <v>76.6643</v>
+      </c>
+      <c r="E62">
+        <v>7.5779</v>
+      </c>
+      <c r="F62">
+        <v>2.8922</v>
+      </c>
+      <c r="G62">
+        <v>1.7741</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>94.12269999999999</v>
+      </c>
+      <c r="C63">
+        <v>32.8067</v>
+      </c>
+      <c r="D63">
+        <v>81.3792</v>
+      </c>
+      <c r="E63">
+        <v>15.9429</v>
+      </c>
+      <c r="F63">
+        <v>3.1135</v>
+      </c>
+      <c r="G63">
+        <v>2.8524</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>99.4952</v>
+      </c>
+      <c r="C64">
+        <v>25.0697</v>
+      </c>
+      <c r="D64">
+        <v>83.2226</v>
+      </c>
+      <c r="E64">
+        <v>18.0261</v>
+      </c>
+      <c r="F64">
+        <v>2.6165</v>
+      </c>
+      <c r="G64">
+        <v>1.5586</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>94.0502</v>
+      </c>
+      <c r="C65">
+        <v>27.0866</v>
+      </c>
+      <c r="D65">
+        <v>76.5163</v>
+      </c>
+      <c r="E65">
+        <v>20.4316</v>
+      </c>
+      <c r="F65">
+        <v>3.7304</v>
+      </c>
+      <c r="G65">
+        <v>1.6242</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>22.8511</v>
+      </c>
+      <c r="C66">
+        <v>32.4372</v>
+      </c>
+      <c r="D66">
+        <v>79.7119</v>
+      </c>
+      <c r="E66">
+        <v>15.7346</v>
+      </c>
+      <c r="F66">
+        <v>2.0235</v>
+      </c>
+      <c r="G66">
+        <v>2.5902</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>79.34269999999999</v>
+      </c>
+      <c r="C67">
+        <v>29.2743</v>
+      </c>
+      <c r="D67">
+        <v>83.6087</v>
+      </c>
+      <c r="E67">
+        <v>10.0104</v>
+      </c>
+      <c r="F67">
+        <v>1.5145</v>
+      </c>
+      <c r="G67">
+        <v>2.7768</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>83.6691</v>
+      </c>
+      <c r="C68">
+        <v>31.9395</v>
+      </c>
+      <c r="D68">
+        <v>71.9144</v>
+      </c>
+      <c r="E68">
+        <v>20.7761</v>
+      </c>
+      <c r="F68">
+        <v>1.8663</v>
+      </c>
+      <c r="G68">
+        <v>2.3649</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>49.8893</v>
+      </c>
+      <c r="C69">
+        <v>32.7218</v>
+      </c>
+      <c r="D69">
+        <v>77.08750000000001</v>
+      </c>
+      <c r="E69">
+        <v>15.3843</v>
+      </c>
+      <c r="F69">
+        <v>3.7616</v>
+      </c>
+      <c r="G69">
+        <v>2.1905</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>42.9259</v>
+      </c>
+      <c r="C70">
+        <v>27.7189</v>
+      </c>
+      <c r="D70">
+        <v>95.0671</v>
+      </c>
+      <c r="E70">
+        <v>20.0808</v>
+      </c>
+      <c r="F70">
+        <v>1.7234</v>
+      </c>
+      <c r="G70">
+        <v>2.1609</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>70.45059999999999</v>
+      </c>
+      <c r="C71">
+        <v>28.9408</v>
+      </c>
+      <c r="D71">
+        <v>92.7606</v>
+      </c>
+      <c r="E71">
+        <v>11.1106</v>
+      </c>
+      <c r="F71">
+        <v>3.5426</v>
+      </c>
+      <c r="G71">
+        <v>2.408</v>
+      </c>
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>20.6989</v>
+      </c>
+      <c r="C72">
+        <v>32.5945</v>
+      </c>
+      <c r="D72">
+        <v>73.1688</v>
+      </c>
+      <c r="E72">
+        <v>19.731</v>
+      </c>
+      <c r="F72">
+        <v>1.5192</v>
+      </c>
+      <c r="G72">
+        <v>2.8386</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>40.6962</v>
+      </c>
+      <c r="C73">
+        <v>29.3837</v>
+      </c>
+      <c r="D73">
+        <v>97.32299999999999</v>
+      </c>
+      <c r="E73">
+        <v>6.6054</v>
+      </c>
+      <c r="F73">
+        <v>2.1479</v>
+      </c>
+      <c r="G73">
+        <v>1.8197</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>21.7124</v>
+      </c>
+      <c r="C74">
+        <v>30.2293</v>
+      </c>
+      <c r="D74">
+        <v>97.9044</v>
+      </c>
+      <c r="E74">
+        <v>5.7782</v>
+      </c>
+      <c r="F74">
+        <v>2.706</v>
+      </c>
+      <c r="G74">
+        <v>2.8761</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>97.4335</v>
+      </c>
+      <c r="C75">
+        <v>27.9193</v>
+      </c>
+      <c r="D75">
+        <v>88.3141</v>
+      </c>
+      <c r="E75">
+        <v>23.209</v>
+      </c>
+      <c r="F75">
+        <v>1.6732</v>
+      </c>
+      <c r="G75">
+        <v>2.8979</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>77.4264</v>
+      </c>
+      <c r="C76">
+        <v>31.3097</v>
+      </c>
+      <c r="D76">
+        <v>81.3548</v>
+      </c>
+      <c r="E76">
+        <v>19.5733</v>
+      </c>
+      <c r="F76">
+        <v>2.7369</v>
+      </c>
+      <c r="G76">
+        <v>2.7085</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>52.578</v>
+      </c>
+      <c r="C77">
+        <v>34.5694</v>
+      </c>
+      <c r="D77">
+        <v>75.4413</v>
+      </c>
+      <c r="E77">
+        <v>13.9226</v>
+      </c>
+      <c r="F77">
+        <v>3.0989</v>
+      </c>
+      <c r="G77">
+        <v>1.5178</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>83.5826</v>
+      </c>
+      <c r="C78">
+        <v>30.2559</v>
+      </c>
+      <c r="D78">
+        <v>90.261</v>
+      </c>
+      <c r="E78">
+        <v>14.7141</v>
+      </c>
+      <c r="F78">
+        <v>2.7491</v>
+      </c>
+      <c r="G78">
+        <v>2.6427</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>42.4792</v>
+      </c>
+      <c r="C79">
+        <v>32.5813</v>
+      </c>
+      <c r="D79">
+        <v>95.6373</v>
+      </c>
+      <c r="E79">
+        <v>16.022</v>
+      </c>
+      <c r="F79">
+        <v>3.2907</v>
+      </c>
+      <c r="G79">
+        <v>1.6412</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>98.82850000000001</v>
+      </c>
+      <c r="C80">
+        <v>33.8772</v>
+      </c>
+      <c r="D80">
+        <v>98.91630000000001</v>
+      </c>
+      <c r="E80">
+        <v>16.9125</v>
+      </c>
+      <c r="F80">
+        <v>3.0629</v>
+      </c>
+      <c r="G80">
+        <v>1.5623</v>
+      </c>
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>88.73560000000001</v>
+      </c>
+      <c r="C81">
+        <v>26.1066</v>
+      </c>
+      <c r="D81">
+        <v>95.10939999999999</v>
+      </c>
+      <c r="E81">
+        <v>9.7911</v>
+      </c>
+      <c r="F81">
+        <v>2.5119</v>
+      </c>
+      <c r="G81">
+        <v>2.4869</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>85.30589999999999</v>
+      </c>
+      <c r="C82">
+        <v>34.9874</v>
+      </c>
+      <c r="D82">
+        <v>84.2731</v>
+      </c>
+      <c r="E82">
+        <v>16.1217</v>
+      </c>
+      <c r="F82">
+        <v>2.4789</v>
+      </c>
+      <c r="G82">
+        <v>2.4127</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>51.8594</v>
+      </c>
+      <c r="C83">
+        <v>28.8614</v>
+      </c>
+      <c r="D83">
+        <v>73.7623</v>
+      </c>
+      <c r="E83">
+        <v>10.5665</v>
+      </c>
+      <c r="F83">
+        <v>2.7452</v>
+      </c>
+      <c r="G83">
+        <v>1.6189</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>45.7851</v>
+      </c>
+      <c r="C84">
+        <v>34.4182</v>
+      </c>
+      <c r="D84">
+        <v>73.92619999999999</v>
+      </c>
+      <c r="E84">
+        <v>9.346299999999999</v>
+      </c>
+      <c r="F84">
+        <v>3.5497</v>
+      </c>
+      <c r="G84">
+        <v>2.9907</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>4.8605</v>
+      </c>
+      <c r="C85">
+        <v>25.8966</v>
+      </c>
+      <c r="D85">
+        <v>82.6506</v>
+      </c>
+      <c r="E85">
+        <v>20.3162</v>
+      </c>
+      <c r="F85">
+        <v>2.7667</v>
+      </c>
+      <c r="G85">
+        <v>2.7537</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>58.5533</v>
+      </c>
+      <c r="C86">
+        <v>25.8386</v>
+      </c>
+      <c r="D86">
+        <v>70.77209999999999</v>
+      </c>
+      <c r="E86">
+        <v>8.738200000000001</v>
+      </c>
+      <c r="F86">
+        <v>2.1164</v>
+      </c>
+      <c r="G86">
+        <v>2.7739</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>26.9746</v>
+      </c>
+      <c r="C87">
+        <v>32.7327</v>
+      </c>
+      <c r="D87">
+        <v>79.7183</v>
+      </c>
+      <c r="E87">
+        <v>22.269</v>
+      </c>
+      <c r="F87">
+        <v>3.815</v>
+      </c>
+      <c r="G87">
+        <v>2.8633</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>78.8278</v>
+      </c>
+      <c r="C88">
+        <v>34.6058</v>
+      </c>
+      <c r="D88">
+        <v>90.6447</v>
+      </c>
+      <c r="E88">
+        <v>19.0135</v>
+      </c>
+      <c r="F88">
+        <v>3.5274</v>
+      </c>
+      <c r="G88">
+        <v>2.9775</v>
+      </c>
+      <c r="H88" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>80.752</v>
+      </c>
+      <c r="C89">
+        <v>31.8292</v>
+      </c>
+      <c r="D89">
+        <v>80.61750000000001</v>
+      </c>
+      <c r="E89">
+        <v>5.4056</v>
+      </c>
+      <c r="F89">
+        <v>2.1057</v>
+      </c>
+      <c r="G89">
+        <v>1.7556</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>93.7407</v>
+      </c>
+      <c r="C90">
+        <v>28.6448</v>
+      </c>
+      <c r="D90">
+        <v>77.5896</v>
+      </c>
+      <c r="E90">
+        <v>8.7629</v>
+      </c>
+      <c r="F90">
+        <v>3.0306</v>
+      </c>
+      <c r="G90">
+        <v>2.9827</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>19.8866</v>
+      </c>
+      <c r="C91">
+        <v>31.2323</v>
+      </c>
+      <c r="D91">
+        <v>86.6027</v>
+      </c>
+      <c r="E91">
+        <v>9.257</v>
+      </c>
+      <c r="F91">
+        <v>3.0783</v>
+      </c>
+      <c r="G91">
+        <v>1.8717</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>67.11320000000001</v>
+      </c>
+      <c r="C92">
+        <v>33.2336</v>
+      </c>
+      <c r="D92">
+        <v>76.1198</v>
+      </c>
+      <c r="E92">
+        <v>20.7181</v>
+      </c>
+      <c r="F92">
+        <v>2.2622</v>
+      </c>
+      <c r="G92">
+        <v>1.593</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>13.8381</v>
+      </c>
+      <c r="C93">
+        <v>25.2805</v>
+      </c>
+      <c r="D93">
+        <v>79.1155</v>
+      </c>
+      <c r="E93">
+        <v>10.7233</v>
+      </c>
+      <c r="F93">
+        <v>2.0986</v>
+      </c>
+      <c r="G93">
+        <v>2.9096</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>31.5888</v>
+      </c>
+      <c r="C94">
+        <v>33.1621</v>
+      </c>
+      <c r="D94">
+        <v>97.31440000000001</v>
+      </c>
+      <c r="E94">
+        <v>15.6542</v>
+      </c>
+      <c r="F94">
+        <v>1.7488</v>
+      </c>
+      <c r="G94">
+        <v>2.725</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>99.039</v>
+      </c>
+      <c r="C95">
+        <v>29.254</v>
+      </c>
+      <c r="D95">
+        <v>72.9765</v>
+      </c>
+      <c r="E95">
+        <v>17.5619</v>
+      </c>
+      <c r="F95">
+        <v>3.2965</v>
+      </c>
+      <c r="G95">
+        <v>2.675</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>64.5307</v>
+      </c>
+      <c r="C96">
+        <v>34.1763</v>
+      </c>
+      <c r="D96">
+        <v>98.9538</v>
+      </c>
+      <c r="E96">
+        <v>17.3765</v>
+      </c>
+      <c r="F96">
+        <v>2.152</v>
+      </c>
+      <c r="G96">
+        <v>2.0991</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>60.173</v>
+      </c>
+      <c r="C97">
+        <v>27.1822</v>
+      </c>
+      <c r="D97">
+        <v>92.4192</v>
+      </c>
+      <c r="E97">
+        <v>6.1713</v>
+      </c>
+      <c r="F97">
+        <v>3.7896</v>
+      </c>
+      <c r="G97">
+        <v>1.5524</v>
+      </c>
+      <c r="H97" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>10.5553</v>
+      </c>
+      <c r="C98">
+        <v>26.8307</v>
+      </c>
+      <c r="D98">
+        <v>82.1819</v>
+      </c>
+      <c r="E98">
+        <v>6.8646</v>
+      </c>
+      <c r="F98">
+        <v>2.1444</v>
+      </c>
+      <c r="G98">
+        <v>2.4239</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>99.75230000000001</v>
+      </c>
+      <c r="C99">
+        <v>30.6152</v>
+      </c>
+      <c r="D99">
+        <v>95.13079999999999</v>
+      </c>
+      <c r="E99">
+        <v>21.4053</v>
+      </c>
+      <c r="F99">
+        <v>3.7664</v>
+      </c>
+      <c r="G99">
+        <v>2.4392</v>
+      </c>
+      <c r="H99" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>30.5812</v>
+      </c>
+      <c r="C100">
+        <v>33.833</v>
+      </c>
+      <c r="D100">
+        <v>86.9404</v>
+      </c>
+      <c r="E100">
+        <v>17.5707</v>
+      </c>
+      <c r="F100">
+        <v>1.7733</v>
+      </c>
+      <c r="G100">
+        <v>2.1379</v>
+      </c>
+      <c r="H100" t="s">
+        <v>9</v>
+      </c>
+      <c r="I100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>11.7146</v>
+      </c>
+      <c r="C101">
+        <v>27.3389</v>
+      </c>
+      <c r="D101">
+        <v>72.9272</v>
+      </c>
+      <c r="E101">
+        <v>10.1151</v>
+      </c>
+      <c r="F101">
+        <v>2.5992</v>
+      </c>
+      <c r="G101">
+        <v>2.3764</v>
+      </c>
+      <c r="H101" t="s">
+        <v>9</v>
+      </c>
+      <c r="I101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>35.7601</v>
+      </c>
+      <c r="C102">
+        <v>26.67</v>
+      </c>
+      <c r="D102">
+        <v>88.3224</v>
+      </c>
+      <c r="E102">
+        <v>11.9254</v>
+      </c>
+      <c r="F102">
+        <v>3.7874</v>
+      </c>
+      <c r="G102">
+        <v>1.6708</v>
+      </c>
+      <c r="H102" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>33.4716</v>
+      </c>
+      <c r="C103">
+        <v>26.503</v>
+      </c>
+      <c r="D103">
+        <v>97.821</v>
+      </c>
+      <c r="E103">
+        <v>13.2501</v>
+      </c>
+      <c r="F103">
+        <v>2.1073</v>
+      </c>
+      <c r="G103">
+        <v>1.8919</v>
+      </c>
+      <c r="H103" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>55.7025</v>
+      </c>
+      <c r="C104">
+        <v>33.4775</v>
+      </c>
+      <c r="D104">
+        <v>98.488</v>
+      </c>
+      <c r="E104">
+        <v>12.8098</v>
+      </c>
+      <c r="F104">
+        <v>3.1037</v>
+      </c>
+      <c r="G104">
+        <v>1.8292</v>
+      </c>
+      <c r="H104" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>37.7776</v>
+      </c>
+      <c r="C105">
+        <v>34.6944</v>
+      </c>
+      <c r="D105">
+        <v>94.7568</v>
+      </c>
+      <c r="E105">
+        <v>14.6457</v>
+      </c>
+      <c r="F105">
+        <v>2.3523</v>
+      </c>
+      <c r="G105">
+        <v>2.8734</v>
+      </c>
+      <c r="H105" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>48.627</v>
+      </c>
+      <c r="C106">
+        <v>32.5011</v>
+      </c>
+      <c r="D106">
+        <v>96.57640000000001</v>
+      </c>
+      <c r="E106">
+        <v>10.1269</v>
+      </c>
+      <c r="F106">
+        <v>1.8994</v>
+      </c>
+      <c r="G106">
+        <v>2.0622</v>
+      </c>
+      <c r="H106" t="s">
+        <v>9</v>
+      </c>
+      <c r="I106" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>79.98869999999999</v>
+      </c>
+      <c r="C107">
+        <v>26.3054</v>
+      </c>
+      <c r="D107">
+        <v>99.1233</v>
+      </c>
+      <c r="E107">
+        <v>24.1871</v>
+      </c>
+      <c r="F107">
+        <v>1.5759</v>
+      </c>
+      <c r="G107">
+        <v>1.9852</v>
+      </c>
+      <c r="H107" t="s">
+        <v>9</v>
+      </c>
+      <c r="I107" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>60.3318</v>
+      </c>
+      <c r="C108">
+        <v>31.373</v>
+      </c>
+      <c r="D108">
+        <v>88.2148</v>
+      </c>
+      <c r="E108">
+        <v>11.9226</v>
+      </c>
+      <c r="F108">
+        <v>2.282</v>
+      </c>
+      <c r="G108">
+        <v>2.7</v>
+      </c>
+      <c r="H108" t="s">
+        <v>9</v>
+      </c>
+      <c r="I108" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>44.4975</v>
+      </c>
+      <c r="C109">
+        <v>27.3914</v>
+      </c>
+      <c r="D109">
+        <v>78.8013</v>
+      </c>
+      <c r="E109">
+        <v>20.3894</v>
+      </c>
+      <c r="F109">
+        <v>2.0224</v>
+      </c>
+      <c r="G109">
+        <v>2.0712</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+      <c r="I109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>75.8865</v>
+      </c>
+      <c r="C110">
+        <v>26.9968</v>
+      </c>
+      <c r="D110">
+        <v>75.66589999999999</v>
+      </c>
+      <c r="E110">
+        <v>21.4034</v>
+      </c>
+      <c r="F110">
+        <v>2.6801</v>
+      </c>
+      <c r="G110">
+        <v>1.8978</v>
+      </c>
+      <c r="H110" t="s">
+        <v>9</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>8.226800000000001</v>
+      </c>
+      <c r="C111">
+        <v>32.6614</v>
+      </c>
+      <c r="D111">
+        <v>97.40949999999999</v>
+      </c>
+      <c r="E111">
+        <v>21.614</v>
+      </c>
+      <c r="F111">
+        <v>2.0922</v>
+      </c>
+      <c r="G111">
+        <v>1.7638</v>
+      </c>
+      <c r="H111" t="s">
+        <v>9</v>
+      </c>
+      <c r="I111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>42.451</v>
+      </c>
+      <c r="C112">
+        <v>30.4978</v>
+      </c>
+      <c r="D112">
+        <v>84.3215</v>
+      </c>
+      <c r="E112">
+        <v>5.3818</v>
+      </c>
+      <c r="F112">
+        <v>3.7746</v>
+      </c>
+      <c r="G112">
+        <v>2.0205</v>
+      </c>
+      <c r="H112" t="s">
+        <v>9</v>
+      </c>
+      <c r="I112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>58.4575</v>
+      </c>
+      <c r="C113">
+        <v>33.8906</v>
+      </c>
+      <c r="D113">
+        <v>95.2864</v>
+      </c>
+      <c r="E113">
+        <v>12.5966</v>
+      </c>
+      <c r="F113">
+        <v>3.3228</v>
+      </c>
+      <c r="G113">
+        <v>2.4429</v>
+      </c>
+      <c r="H113" t="s">
+        <v>10</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>54.824</v>
+      </c>
+      <c r="C114">
+        <v>26.9874</v>
+      </c>
+      <c r="D114">
+        <v>98.1109</v>
+      </c>
+      <c r="E114">
+        <v>5.1569</v>
+      </c>
+      <c r="F114">
+        <v>1.9482</v>
+      </c>
+      <c r="G114">
+        <v>2.1789</v>
+      </c>
+      <c r="H114" t="s">
+        <v>9</v>
+      </c>
+      <c r="I114" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>95.1716</v>
+      </c>
+      <c r="C115">
+        <v>30.0595</v>
+      </c>
+      <c r="D115">
+        <v>90.23050000000001</v>
+      </c>
+      <c r="E115">
+        <v>21.9073</v>
+      </c>
+      <c r="F115">
+        <v>3.5025</v>
+      </c>
+      <c r="G115">
+        <v>1.8829</v>
+      </c>
+      <c r="H115" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>86.1572</v>
+      </c>
+      <c r="C116">
+        <v>27.2015</v>
+      </c>
+      <c r="D116">
+        <v>78.7924</v>
+      </c>
+      <c r="E116">
+        <v>21.2438</v>
+      </c>
+      <c r="F116">
+        <v>3.2424</v>
+      </c>
+      <c r="G116">
+        <v>1.5211</v>
+      </c>
+      <c r="H116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>43.4048</v>
+      </c>
+      <c r="C117">
+        <v>28.3276</v>
+      </c>
+      <c r="D117">
+        <v>99.4898</v>
+      </c>
+      <c r="E117">
+        <v>5.9555</v>
+      </c>
+      <c r="F117">
+        <v>3.7378</v>
+      </c>
+      <c r="G117">
+        <v>2.0085</v>
+      </c>
+      <c r="H117" t="s">
+        <v>9</v>
+      </c>
+      <c r="I117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>77.1347</v>
+      </c>
+      <c r="C118">
+        <v>34.7001</v>
+      </c>
+      <c r="D118">
+        <v>72.8</v>
+      </c>
+      <c r="E118">
+        <v>6.5159</v>
+      </c>
+      <c r="F118">
+        <v>2.1625</v>
+      </c>
+      <c r="G118">
+        <v>1.8548</v>
+      </c>
+      <c r="H118" t="s">
+        <v>9</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>98.407</v>
+      </c>
+      <c r="C119">
+        <v>28.6583</v>
+      </c>
+      <c r="D119">
+        <v>89.1908</v>
+      </c>
+      <c r="E119">
+        <v>21.1729</v>
+      </c>
+      <c r="F119">
+        <v>3.3132</v>
+      </c>
+      <c r="G119">
+        <v>1.6873</v>
+      </c>
+      <c r="H119" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>79.49809999999999</v>
+      </c>
+      <c r="C120">
+        <v>25.4349</v>
+      </c>
+      <c r="D120">
+        <v>94.9629</v>
+      </c>
+      <c r="E120">
+        <v>14.8503</v>
+      </c>
+      <c r="F120">
+        <v>2.6054</v>
+      </c>
+      <c r="G120">
+        <v>2.7648</v>
+      </c>
+      <c r="H120" t="s">
+        <v>9</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>56.6531</v>
+      </c>
+      <c r="C121">
+        <v>31.1281</v>
+      </c>
+      <c r="D121">
+        <v>75.32210000000001</v>
+      </c>
+      <c r="E121">
+        <v>11.3141</v>
+      </c>
+      <c r="F121">
+        <v>2.644</v>
+      </c>
+      <c r="G121">
+        <v>2.8027</v>
+      </c>
+      <c r="H121" t="s">
+        <v>9</v>
+      </c>
+      <c r="I121" t="s">
         <v>12</v>
       </c>
     </row>
